--- a/Elevator Locations.xlsx
+++ b/Elevator Locations.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
-  <si>
-    <t>Device Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Country</t>
   </si>
@@ -31,30 +28,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Elevator 01</t>
-  </si>
-  <si>
-    <t>Elevator 02</t>
-  </si>
-  <si>
-    <t>Elevator 03</t>
-  </si>
-  <si>
-    <t>Elevator 04</t>
-  </si>
-  <si>
-    <t>Elevator 05</t>
-  </si>
-  <si>
-    <t>Elevator 06</t>
-  </si>
-  <si>
-    <t>Elevator 07</t>
-  </si>
-  <si>
-    <t>Elevator 08</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -106,12 +79,6 @@
     <t>E002</t>
   </si>
   <si>
-    <t>Elevator 09</t>
-  </si>
-  <si>
-    <t>Elevator 10</t>
-  </si>
-  <si>
     <t>E003</t>
   </si>
   <si>
@@ -122,6 +89,42 @@
   </si>
   <si>
     <t>Vienna</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Deviceid</t>
+  </si>
+  <si>
+    <t>Elevator01</t>
+  </si>
+  <si>
+    <t>Elevator02</t>
+  </si>
+  <si>
+    <t>Elevator03</t>
+  </si>
+  <si>
+    <t>Elevator04</t>
+  </si>
+  <si>
+    <t>Elevator05</t>
+  </si>
+  <si>
+    <t>Elevator06</t>
+  </si>
+  <si>
+    <t>Elevator07</t>
+  </si>
+  <si>
+    <t>Elevator08</t>
+  </si>
+  <si>
+    <t>Elevator09</t>
+  </si>
+  <si>
+    <t>Elevator10</t>
   </si>
 </sst>
 </file>
@@ -157,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,198 +478,233 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>81675</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D10" s="1">
+        <v>20251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>